--- a/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Excel Sheet/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A657522-045B-D941-943E-FF4A541C48A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260CCA1E-66DF-2940-BE4E-E64205A5A97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -741,25 +741,25 @@
     <t>48-54</t>
   </si>
   <si>
-    <t>174-220</t>
-  </si>
-  <si>
     <t>us10_marriage_after_14()</t>
   </si>
   <si>
-    <t>231-277</t>
-  </si>
-  <si>
     <t>test_us10_marriage_after_14()</t>
   </si>
   <si>
     <t>57-63</t>
   </si>
   <si>
-    <t>33-79</t>
-  </si>
-  <si>
-    <t>89-122</t>
+    <t>33-82</t>
+  </si>
+  <si>
+    <t>92-125</t>
+  </si>
+  <si>
+    <t>178-223</t>
+  </si>
+  <si>
+    <t>233-283</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2462,7 @@
         <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2883,7 +2883,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2973,11 +2973,15 @@
       <c r="C16" s="14">
         <v>30</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="9" t="e">
+      <c r="E16" s="14">
+        <v>82</v>
+      </c>
+      <c r="F16" s="14">
+        <v>160</v>
+      </c>
+      <c r="G16" s="9">
         <f>(E16-E15)/F16*60</f>
-        <v>#DIV/0!</v>
+        <v>30.749999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3035,7 +3039,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3086,9 +3090,15 @@
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="F3" s="9" t="e">
+      <c r="D3" s="14">
+        <v>82</v>
+      </c>
+      <c r="E3" s="14">
+        <v>160</v>
+      </c>
+      <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>#DIV/0!</v>
+        <v>30.749999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -3209,7 +3219,7 @@
         <v>208</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>210</v>
@@ -3268,7 +3278,7 @@
         <v>209</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>210</v>
@@ -3469,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3559,7 +3569,7 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3574,7 +3584,7 @@
         <v>216</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>210</v>
@@ -3617,7 +3627,7 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" s="21">
         <v>45</v>
@@ -3629,19 +3639,19 @@
         <v>207</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>210</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -4318,7 +4328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
